--- a/04-03-2024/clients_feedback.xlsx
+++ b/04-03-2024/clients_feedback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Office\Creative\USCS\USCS_2851\04-03-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ragib\USCS-2851\USCS_2851\04-03-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468CA40A-C734-47DD-BF39-ED935E1EC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A53AFC-A4CE-4318-8D47-7A5332BC80EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="181773_Cunard Line 2023" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="711">
   <si>
     <t>{"version": "3.0"}</t>
   </si>
@@ -2154,13 +2154,19 @@
   </si>
   <si>
     <t>on a Queen Mary 2&lt;sup style="left:1px"&gt;®&lt;/sup&gt; &amp;nbsp;Transatlantic Crossing</t>
+  </si>
+  <si>
+    <t>https://fm.flashtalking.com/feed/1835/hybrid/trending_mediterranean</t>
+  </si>
+  <si>
+    <t>14,#000,0,448</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2173,13 +2179,37 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2191,19 +2221,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2227,7 +2297,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>856764</xdr:colOff>
+      <xdr:colOff>532914</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
@@ -2562,18 +2632,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R10" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36" style="2" customWidth="1"/>
-    <col min="3" max="61" width="24" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="59.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="61.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="72.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="59.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="61.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="59.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="61.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="43.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="53" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="41.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -2804,7 +2926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -2989,7 +3111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -3174,7 +3296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
@@ -3359,7 +3481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -3544,209 +3666,209 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="V16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="W16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Y16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AA16" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AB16" s="2" t="s">
+      <c r="AB16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AC16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AD16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AE16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AF16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AG16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AH16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AI16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AJ16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AJ16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AL16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AM16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AO16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AP16" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ16" s="2" t="s">
+      <c r="AQ16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AR16" s="2" t="s">
+      <c r="AR16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AS16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AT16" s="2" t="s">
+      <c r="AT16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AU16" s="2" t="s">
+      <c r="AU16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AV16" s="2" t="s">
+      <c r="AV16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AW16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB16" s="2" t="s">
+      <c r="AW16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB16" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BC16" s="2" t="s">
+      <c r="BC16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BD16" s="2" t="s">
+      <c r="BD16" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="BE16" s="2" t="s">
+      <c r="BE16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="BF16" s="2" t="s">
+      <c r="BF16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="BG16" s="2" t="s">
+      <c r="BG16" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="BH16" s="2" t="s">
+      <c r="BH16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="BI16" s="2" t="s">
+      <c r="BI16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>71</v>
@@ -3758,106 +3880,106 @@
         <v>156</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>106</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH17" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM17" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="AP17" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR17" s="2" t="s">
         <v>74</v>
@@ -3890,48 +4012,48 @@
         <v>70</v>
       </c>
       <c r="BB17" s="2" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="BC17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="BE17" s="2" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="BH17" s="2" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
@@ -3943,106 +4065,106 @@
         <v>156</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>705</v>
+        <v>115</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM18" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="AP18" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>74</v>
@@ -4075,48 +4197,48 @@
         <v>70</v>
       </c>
       <c r="BB18" s="2" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="BC18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="BE18" s="2" t="s">
-        <v>557</v>
+        <v>243</v>
       </c>
       <c r="BF18" s="2" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="BG18" s="2" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="BH18" s="2" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="BI18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>71</v>
@@ -4128,106 +4250,106 @@
         <v>156</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH19" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM19" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="AP19" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR19" s="2" t="s">
         <v>74</v>
@@ -4260,48 +4382,48 @@
         <v>70</v>
       </c>
       <c r="BB19" s="2" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="BC19" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="BE19" s="2" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="BF19" s="2" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="BG19" s="2" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="BI19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
@@ -4313,106 +4435,106 @@
         <v>156</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH20" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="AJ20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM20" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="AP20" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR20" s="2" t="s">
         <v>74</v>
@@ -4445,218 +4567,218 @@
         <v>70</v>
       </c>
       <c r="BB20" s="2" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="BC20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD20" s="2" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="BE20" s="2" t="s">
-        <v>168</v>
+        <v>611</v>
       </c>
       <c r="BF20" s="2" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="BG20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO21" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BH20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BE21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BF21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BD21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="BE21" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="BF21" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="BG21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="BH21" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI21" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>155</v>
@@ -4683,73 +4805,73 @@
         <v>156</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>106</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>699</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>113</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>115</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="Y22" s="2" t="s">
         <v>117</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>118</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="AE22" s="2" t="s">
         <v>120</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>73</v>
@@ -4758,13 +4880,13 @@
         <v>83</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="AL22" s="2" t="s">
         <v>73</v>
@@ -4773,10 +4895,10 @@
         <v>123</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="AP22" s="2" t="s">
         <v>126</v>
@@ -4815,33 +4937,33 @@
         <v>70</v>
       </c>
       <c r="BB22" s="2" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="BC22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD22" s="2" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="BE22" s="2" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="BF22" s="2" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="BG22" s="2" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="BH22" s="2" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="BI22" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>160</v>
@@ -4868,73 +4990,73 @@
         <v>156</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>699</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>113</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>117</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>118</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="AE23" s="2" t="s">
         <v>120</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AG23" s="2" t="s">
         <v>73</v>
@@ -4943,13 +5065,13 @@
         <v>83</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="AL23" s="2" t="s">
         <v>73</v>
@@ -4958,10 +5080,10 @@
         <v>123</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="AP23" s="2" t="s">
         <v>126</v>
@@ -5000,33 +5122,33 @@
         <v>70</v>
       </c>
       <c r="BB23" s="2" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="BC23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD23" s="2" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="BE23" s="2" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="BF23" s="2" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="BG23" s="2" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="BH23" s="2" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="BI23" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>164</v>
@@ -5053,73 +5175,73 @@
         <v>156</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>700</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>113</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>115</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>117</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>118</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="AE24" s="2" t="s">
         <v>120</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AG24" s="2" t="s">
         <v>73</v>
@@ -5128,13 +5250,13 @@
         <v>83</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>73</v>
@@ -5143,10 +5265,10 @@
         <v>123</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="AP24" s="2" t="s">
         <v>126</v>
@@ -5185,33 +5307,33 @@
         <v>70</v>
       </c>
       <c r="BB24" s="2" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="BC24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD24" s="2" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="BE24" s="2" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="BF24" s="2" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="BG24" s="2" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="BH24" s="2" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="BI24" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>170</v>
@@ -5238,73 +5360,73 @@
         <v>156</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>700</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>113</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>115</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>117</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>118</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="AE25" s="2" t="s">
         <v>120</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AG25" s="2" t="s">
         <v>73</v>
@@ -5313,13 +5435,13 @@
         <v>83</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="AJ25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="AL25" s="2" t="s">
         <v>73</v>
@@ -5328,10 +5450,10 @@
         <v>123</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="AO25" s="2" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="AP25" s="2" t="s">
         <v>126</v>
@@ -5370,233 +5492,233 @@
         <v>70</v>
       </c>
       <c r="BB25" s="2" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="BC25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD25" s="2" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="BE25" s="2" t="s">
-        <v>611</v>
+        <v>503</v>
       </c>
       <c r="BF25" s="2" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="BG25" s="2" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="BI25" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="C26" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="O26" s="2" t="s">
+      <c r="N26" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="S26" s="2" t="s">
+      <c r="P26" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="S26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="T26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U26" s="2" t="s">
+      <c r="T26" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y26" s="2" t="s">
+      <c r="V26" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA26" s="2" t="s">
+      <c r="Z26" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AB26" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AB26" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AF26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG26" s="2" t="s">
+      <c r="AF26" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AH26" s="2" t="s">
+      <c r="AH26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI26" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL26" s="2" t="s">
+      <c r="AI26" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AM26" s="2" t="s">
+      <c r="AM26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AN26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP26" s="2" t="s">
+      <c r="AN26" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO26" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ26" s="2" t="s">
+      <c r="AQ26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AR26" s="2" t="s">
+      <c r="AR26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AS26" s="2" t="s">
+      <c r="AS26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AT26" s="2" t="s">
+      <c r="AT26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AU26" s="2" t="s">
+      <c r="AU26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AV26" s="2" t="s">
+      <c r="AV26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AW26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB26" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BC26" s="2" t="s">
+      <c r="AW26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB26" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BD26" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BE26" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BF26" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG26" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BH26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BI26" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BD26" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="BE26" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF26" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG26" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="BH26" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="BI26" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
@@ -5608,106 +5730,106 @@
         <v>156</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>106</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH27" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="AJ27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM27" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="AP27" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR27" s="2" t="s">
         <v>74</v>
@@ -5740,48 +5862,48 @@
         <v>70</v>
       </c>
       <c r="BB27" s="2" t="s">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="BC27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>234</v>
+        <v>378</v>
       </c>
       <c r="BE27" s="2" t="s">
-        <v>233</v>
+        <v>394</v>
       </c>
       <c r="BF27" s="2" t="s">
-        <v>253</v>
+        <v>377</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="BI27" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -5793,106 +5915,106 @@
         <v>156</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>707</v>
+        <v>115</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="AJ28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM28" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="AP28" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ28" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR28" s="2" t="s">
         <v>74</v>
@@ -5925,48 +6047,48 @@
         <v>70</v>
       </c>
       <c r="BB28" s="2" t="s">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="BC28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD28" s="2" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="BE28" s="2" t="s">
-        <v>611</v>
+        <v>382</v>
       </c>
       <c r="BF28" s="2" t="s">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="BG28" s="2" t="s">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="BH28" s="2" t="s">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="BI28" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -5978,106 +6100,106 @@
         <v>156</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="AJ29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM29" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="AP29" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ29" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR29" s="2" t="s">
         <v>74</v>
@@ -6110,48 +6232,48 @@
         <v>70</v>
       </c>
       <c r="BB29" s="2" t="s">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="BC29" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD29" s="2" t="s">
-        <v>242</v>
+        <v>397</v>
       </c>
       <c r="BE29" s="2" t="s">
-        <v>243</v>
+        <v>398</v>
       </c>
       <c r="BF29" s="2" t="s">
-        <v>241</v>
+        <v>391</v>
       </c>
       <c r="BG29" s="2" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="BH29" s="2" t="s">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="BI29" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>71</v>
@@ -6163,106 +6285,106 @@
         <v>156</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>165</v>
+        <v>384</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>700</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AH30" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="AJ30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AM30" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="AP30" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ30" s="2" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AR30" s="2" t="s">
         <v>74</v>
@@ -6295,233 +6417,233 @@
         <v>70</v>
       </c>
       <c r="BB30" s="2" t="s">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="BC30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD30" s="2" t="s">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="BE30" s="2" t="s">
-        <v>257</v>
+        <v>668</v>
       </c>
       <c r="BF30" s="2" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="BG30" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH30" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BI30" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF31" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI31" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO31" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB31" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="BC31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BH30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI30" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="BD31" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="BE31" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="BF31" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="BG31" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="BH31" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="BI31" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BC31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD31" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BE31" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BF31" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI31" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>71</v>
@@ -6533,82 +6655,82 @@
         <v>156</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH32" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>70</v>
@@ -6617,22 +6739,22 @@
         <v>122</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM32" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="AP32" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ32" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR32" s="2" t="s">
         <v>74</v>
@@ -6665,48 +6787,48 @@
         <v>70</v>
       </c>
       <c r="BB32" s="2" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="BC32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD32" s="2" t="s">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="BE32" s="2" t="s">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="BF32" s="2" t="s">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="BG32" s="2" t="s">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="BH32" s="2" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="BI32" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>69</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>71</v>
@@ -6718,82 +6840,82 @@
         <v>156</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>115</v>
+        <v>705</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH33" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>70</v>
@@ -6802,22 +6924,22 @@
         <v>122</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM33" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="AP33" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR33" s="2" t="s">
         <v>74</v>
@@ -6850,48 +6972,48 @@
         <v>70</v>
       </c>
       <c r="BB33" s="2" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="BC33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD33" s="2" t="s">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="BE33" s="2" t="s">
-        <v>311</v>
+        <v>557</v>
       </c>
       <c r="BF33" s="2" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="BG33" s="2" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="BH33" s="2" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="BI33" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>71</v>
@@ -6903,82 +7025,82 @@
         <v>156</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH34" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>70</v>
@@ -6987,22 +7109,22 @@
         <v>122</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM34" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="AP34" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ34" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR34" s="2" t="s">
         <v>74</v>
@@ -7035,48 +7157,48 @@
         <v>70</v>
       </c>
       <c r="BB34" s="2" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="BC34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD34" s="2" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="BE34" s="2" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="BF34" s="2" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="BG34" s="2" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="BH34" s="2" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="BI34" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>170</v>
+        <v>69</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
@@ -7088,82 +7210,82 @@
         <v>156</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="AJ35" s="2" t="s">
         <v>70</v>
@@ -7172,22 +7294,22 @@
         <v>122</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM35" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN35" s="2" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="AP35" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ35" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR35" s="2" t="s">
         <v>74</v>
@@ -7220,48 +7342,48 @@
         <v>70</v>
       </c>
       <c r="BB35" s="2" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="BC35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD35" s="2" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="BE35" s="2" t="s">
-        <v>503</v>
+        <v>168</v>
       </c>
       <c r="BF35" s="2" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="BH35" s="2" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="BI35" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>69</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>71</v>
@@ -7273,82 +7395,82 @@
         <v>156</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>177</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="AJ36" s="2" t="s">
         <v>70</v>
@@ -7357,22 +7479,22 @@
         <v>122</v>
       </c>
       <c r="AL36" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM36" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN36" s="2" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="AO36" s="2" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="AP36" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ36" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR36" s="2" t="s">
         <v>74</v>
@@ -7405,35 +7527,35 @@
         <v>70</v>
       </c>
       <c r="BB36" s="2" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="BC36" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD36" s="2" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="BE36" s="2" t="s">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="BF36" s="2" t="s">
-        <v>335</v>
+        <v>181</v>
       </c>
       <c r="BG36" s="2" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="BH36" s="2" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="BI36" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -7458,73 +7580,73 @@
         <v>156</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>106</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>699</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Y37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AA37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="AC37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="AE37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AG37" s="2" t="s">
         <v>187</v>
@@ -7533,13 +7655,13 @@
         <v>83</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="AJ37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL37" s="2" t="s">
         <v>188</v>
@@ -7548,10 +7670,10 @@
         <v>123</v>
       </c>
       <c r="AN37" s="2" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="AO37" s="2" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="AP37" s="2" t="s">
         <v>126</v>
@@ -7590,19 +7712,19 @@
         <v>70</v>
       </c>
       <c r="BB37" s="2" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="BC37" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD37" s="2" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="BE37" s="2" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="BF37" s="2" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="BG37" s="2" t="s">
         <v>78</v>
@@ -7611,14 +7733,14 @@
         <v>78</v>
       </c>
       <c r="BI37" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -7643,73 +7765,73 @@
         <v>156</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>96</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>700</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AG38" s="2" t="s">
         <v>187</v>
@@ -7718,13 +7840,13 @@
         <v>83</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="AJ38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL38" s="2" t="s">
         <v>188</v>
@@ -7733,10 +7855,10 @@
         <v>123</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="AO38" s="2" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="AP38" s="2" t="s">
         <v>126</v>
@@ -7775,19 +7897,19 @@
         <v>70</v>
       </c>
       <c r="BB38" s="2" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="BC38" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD38" s="2" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="BE38" s="2" t="s">
-        <v>503</v>
+        <v>611</v>
       </c>
       <c r="BF38" s="2" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="BG38" s="2" t="s">
         <v>78</v>
@@ -7796,14 +7918,14 @@
         <v>78</v>
       </c>
       <c r="BI38" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -7828,73 +7950,73 @@
         <v>156</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>699</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Y39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="AC39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AG39" s="2" t="s">
         <v>187</v>
@@ -7903,13 +8025,13 @@
         <v>83</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="AJ39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK39" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL39" s="2" t="s">
         <v>188</v>
@@ -7918,10 +8040,10 @@
         <v>123</v>
       </c>
       <c r="AN39" s="2" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="AO39" s="2" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="AP39" s="2" t="s">
         <v>126</v>
@@ -7960,19 +8082,19 @@
         <v>70</v>
       </c>
       <c r="BB39" s="2" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="BC39" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD39" s="2" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="BE39" s="2" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="BF39" s="2" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="BG39" s="2" t="s">
         <v>78</v>
@@ -7981,14 +8103,14 @@
         <v>78</v>
       </c>
       <c r="BI39" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -8013,73 +8135,73 @@
         <v>156</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>700</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>342</v>
+        <v>195</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Y40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="AC40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="AE40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AG40" s="2" t="s">
         <v>187</v>
@@ -8088,13 +8210,13 @@
         <v>83</v>
       </c>
       <c r="AI40" s="2" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="AJ40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK40" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL40" s="2" t="s">
         <v>188</v>
@@ -8103,10 +8225,10 @@
         <v>123</v>
       </c>
       <c r="AN40" s="2" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="AO40" s="2" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="AP40" s="2" t="s">
         <v>126</v>
@@ -8145,19 +8267,19 @@
         <v>70</v>
       </c>
       <c r="BB40" s="2" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="BC40" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD40" s="2" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="BE40" s="2" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="BF40" s="2" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="BG40" s="2" t="s">
         <v>78</v>
@@ -8166,14 +8288,14 @@
         <v>78</v>
       </c>
       <c r="BI40" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -8198,73 +8320,73 @@
         <v>156</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>177</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>701</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="W41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Y41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="AC41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AG41" s="2" t="s">
         <v>187</v>
@@ -8273,13 +8395,13 @@
         <v>83</v>
       </c>
       <c r="AI41" s="2" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="AJ41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK41" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="AL41" s="2" t="s">
         <v>188</v>
@@ -8288,10 +8410,10 @@
         <v>123</v>
       </c>
       <c r="AN41" s="2" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="AO41" s="2" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="AP41" s="2" t="s">
         <v>126</v>
@@ -8330,19 +8452,19 @@
         <v>70</v>
       </c>
       <c r="BB41" s="2" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="BC41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD41" s="2" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="BE41" s="2" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="BF41" s="2" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="BG41" s="2" t="s">
         <v>78</v>
@@ -8351,27 +8473,27 @@
         <v>78</v>
       </c>
       <c r="BI41" s="2" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>271</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>71</v>
@@ -8383,106 +8505,106 @@
         <v>156</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>106</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH42" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="AJ42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK42" s="2" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="AL42" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM42" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN42" s="2" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="AO42" s="2" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="AP42" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ42" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR42" s="2" t="s">
         <v>74</v>
@@ -8515,48 +8637,48 @@
         <v>70</v>
       </c>
       <c r="BB42" s="2" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="BC42" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD42" s="2" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="BE42" s="2" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="BF42" s="2" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="BG42" s="2" t="s">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="BH42" s="2" t="s">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="BI42" s="2" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>271</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>71</v>
@@ -8568,106 +8690,106 @@
         <v>156</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>115</v>
+        <v>706</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH43" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="AJ43" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="AL43" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN43" s="2" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="AO43" s="2" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="AP43" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ43" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR43" s="2" t="s">
         <v>74</v>
@@ -8700,48 +8822,48 @@
         <v>70</v>
       </c>
       <c r="BB43" s="2" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="BC43" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD43" s="2" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="BE43" s="2" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="BF43" s="2" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="BG43" s="2" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="BH43" s="2" t="s">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="BI43" s="2" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>271</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>71</v>
@@ -8753,106 +8875,106 @@
         <v>156</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH44" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI44" s="2" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="AJ44" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK44" s="2" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="AL44" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM44" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="AO44" s="2" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="AP44" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ44" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR44" s="2" t="s">
         <v>74</v>
@@ -8885,48 +9007,48 @@
         <v>70</v>
       </c>
       <c r="BB44" s="2" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="BC44" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD44" s="2" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="BE44" s="2" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="BF44" s="2" t="s">
-        <v>391</v>
+        <v>309</v>
       </c>
       <c r="BG44" s="2" t="s">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="BH44" s="2" t="s">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="BI44" s="2" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>170</v>
+        <v>271</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>71</v>
@@ -8938,106 +9060,106 @@
         <v>156</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>700</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH45" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI45" s="2" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="AJ45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="AL45" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM45" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN45" s="2" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="AO45" s="2" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="AP45" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ45" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR45" s="2" t="s">
         <v>74</v>
@@ -9070,48 +9192,48 @@
         <v>70</v>
       </c>
       <c r="BB45" s="2" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="BC45" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD45" s="2" t="s">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="BE45" s="2" t="s">
-        <v>668</v>
+        <v>328</v>
       </c>
       <c r="BF45" s="2" t="s">
-        <v>402</v>
+        <v>329</v>
       </c>
       <c r="BG45" s="2" t="s">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="BH45" s="2" t="s">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="BI45" s="2" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>176</v>
+        <v>271</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>71</v>
@@ -9123,106 +9245,106 @@
         <v>156</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AH46" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="AJ46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK46" s="2" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="AL46" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AM46" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AN46" s="2" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="AO46" s="2" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="AP46" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AQ46" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="AR46" s="2" t="s">
         <v>74</v>
@@ -9255,35 +9377,35 @@
         <v>70</v>
       </c>
       <c r="BB46" s="2" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="BC46" s="2" t="s">
         <v>78</v>
       </c>
       <c r="BD46" s="2" t="s">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="BE46" s="2" t="s">
-        <v>405</v>
+        <v>334</v>
       </c>
       <c r="BF46" s="2" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="BG46" s="2" t="s">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="BH46" s="2" t="s">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="BI46" s="2" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -9468,7 +9590,7 @@
       <c r="A48" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -9653,7 +9775,7 @@
       <c r="A49" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -9838,7 +9960,7 @@
       <c r="A50" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -10023,7 +10145,7 @@
       <c r="A51" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -10206,11 +10328,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A11:BI51" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CUN_2024_RTG_Dynamic_728x90.zip"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:BI51">
+      <sortCondition sortBy="cellColor" ref="B11:B51" dxfId="1"/>
+    </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
